--- a/datasets/thanksset.xlsx
+++ b/datasets/thanksset.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\MisaTelegramBot\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$286</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="309">
   <si>
     <t>text</t>
   </si>
@@ -631,7 +639,7 @@
     <t>дело   —     —   отвечать   —   порядок</t>
   </si>
   <si>
-    <t xml:space="preserve">дело   — </t>
+    <t>дело   — </t>
   </si>
   <si>
     <t>дело   —     —   отвечать   —</t>
@@ -682,14 +690,272 @@
     <t>Не благодарность</t>
   </si>
   <si>
-    <t>Погода</t>
+    <t>Миса реши</t>
+  </si>
+  <si>
+    <t>миса стань</t>
+  </si>
+  <si>
+    <t>миса фас</t>
+  </si>
+  <si>
+    <t>миса разойдись</t>
+  </si>
+  <si>
+    <t>миса сядь</t>
+  </si>
+  <si>
+    <t>миса уйди</t>
+  </si>
+  <si>
+    <t>миса распознай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">миса увеличь </t>
+  </si>
+  <si>
+    <t>миса уменьши</t>
+  </si>
+  <si>
+    <t>миса установи</t>
+  </si>
+  <si>
+    <t>миса выключи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">миса включи </t>
+  </si>
+  <si>
+    <t>миса включи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> миса включи </t>
+  </si>
+  <si>
+    <t>Миса включи музыку.</t>
+  </si>
+  <si>
+    <t>Миса включи что-нибудь.</t>
+  </si>
+  <si>
+    <t>Миса выключи музыку.</t>
+  </si>
+  <si>
+    <t>Включить музыку из Google Music</t>
+  </si>
+  <si>
+    <t>Миса включи песню «Впусти музыку».</t>
+  </si>
+  <si>
+    <t>Миса включи песню «Моряк».</t>
+  </si>
+  <si>
+    <t>Включить песню по названию</t>
+  </si>
+  <si>
+    <t>Миса включи последний альбом Би-2.</t>
+  </si>
+  <si>
+    <t>Миса включи альбом «Meteora» Linkin Park.</t>
+  </si>
+  <si>
+    <t>Включить альбом</t>
+  </si>
+  <si>
+    <t>Миса следующий трек.</t>
+  </si>
+  <si>
+    <t>Миса предыдущий трек.</t>
+  </si>
+  <si>
+    <t>Миса 15 умножить на 16.</t>
+  </si>
+  <si>
+    <t>Миса 420 разделить на 15.</t>
+  </si>
+  <si>
+    <t>Миса расписание кинотеатров на завтра.</t>
+  </si>
+  <si>
+    <t>Миса включи телевизор.</t>
+  </si>
+  <si>
+    <t>Миса выключи телевизор.</t>
+  </si>
+  <si>
+    <t>Миса пауза.</t>
+  </si>
+  <si>
+    <t>Миса возобнови.</t>
+  </si>
+  <si>
+    <t>Миса дальше.</t>
+  </si>
+  <si>
+    <t>Миса предыдущее видео.</t>
+  </si>
+  <si>
+    <t>Миса сделай громче.</t>
+  </si>
+  <si>
+    <t>Миса сделай тише.</t>
+  </si>
+  <si>
+    <t>Миса включи ютуб.</t>
+  </si>
+  <si>
+    <t>Миса включи трейлер Веном на телевизоре.</t>
+  </si>
+  <si>
+    <t>Миса включи весёлое видео.</t>
+  </si>
+  <si>
+    <t>Миса покажи клип Linkin Park.</t>
+  </si>
+  <si>
+    <t>Миса включи новости.</t>
+  </si>
+  <si>
+    <t>Миса расскажи новости.</t>
+  </si>
+  <si>
+    <t>Миса новости спорта.</t>
+  </si>
+  <si>
+    <t>Миса новости политики.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> реши</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> стань</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> фас</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> разойдись</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сядь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> уйди</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> распознай</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> увеличь </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> уменьши</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> установи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выключи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  включи </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи музыку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи что-нибудь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выключи музыку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи песню «Впусти музыку».</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи песню «Моряк».</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи последний альбом Би-2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи альбом «Meteora» Linkin Park.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> следующий трек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> предыдущий трек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 умножить на 16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 420 разделить на 15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> расписание кинотеатров на завтра.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи телевизор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выключи телевизор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пауза.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> возобнови.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дальше.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> предыдущее видео.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сделай громче.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сделай тише.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи ютуб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи трейлер Веном на телевизоре.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи весёлое видео.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покажи клип Linkin Park.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> включи новости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> расскажи новости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> новости спорта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> новости политики.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +969,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -741,10 +1022,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,6 +1041,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -798,7 +1095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,9 +1127,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,6 +1162,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1039,14 +1338,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="F362" sqref="F362"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1090,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1266,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1332,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1343,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1354,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1365,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1376,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1387,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1409,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1431,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1464,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1475,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1486,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1508,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1519,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1530,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1541,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1552,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1563,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1574,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1585,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1596,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1607,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1618,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1640,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1651,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1662,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1673,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1684,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1695,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1706,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1717,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1728,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1739,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1750,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1772,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1783,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1794,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -1805,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1816,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1827,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1838,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1849,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1860,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1871,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1882,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1893,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -1915,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -1926,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -1937,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -1948,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -1959,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -1970,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -1981,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -1992,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2003,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2014,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2025,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -2036,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2047,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2058,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -2069,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -2080,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -2091,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -2102,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -2113,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -2124,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -2135,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -2146,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -2157,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2168,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -2179,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -2190,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -2201,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -2212,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -2223,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -2234,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -2245,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -2256,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -2267,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -2278,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -2289,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -2300,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -2311,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -2322,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -2333,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -2344,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -2355,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -2366,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -2377,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -2388,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -2399,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -2410,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -2421,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -2432,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -2443,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -2454,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -2465,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -2476,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -2487,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -2498,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -2509,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -2520,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -2531,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -2553,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>131</v>
       </c>
@@ -2564,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -2586,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>133</v>
       </c>
@@ -2597,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -2608,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -2619,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>135</v>
       </c>
@@ -2630,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -2641,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -2652,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>133</v>
       </c>
@@ -2663,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -2674,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -2685,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>139</v>
       </c>
@@ -2696,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>140</v>
       </c>
@@ -2707,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>140</v>
       </c>
@@ -2718,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>140</v>
       </c>
@@ -2729,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>140</v>
       </c>
@@ -2740,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>140</v>
       </c>
@@ -2751,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>141</v>
       </c>
@@ -2762,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>142</v>
       </c>
@@ -2773,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>143</v>
       </c>
@@ -2784,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>144</v>
       </c>
@@ -2795,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -2806,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>146</v>
       </c>
@@ -2817,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -2828,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>148</v>
       </c>
@@ -2839,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>149</v>
       </c>
@@ -2850,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>150</v>
       </c>
@@ -2861,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>151</v>
       </c>
@@ -2872,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -2883,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -2894,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>154</v>
       </c>
@@ -2905,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>155</v>
       </c>
@@ -2916,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>156</v>
       </c>
@@ -2927,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>157</v>
       </c>
@@ -2938,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>158</v>
       </c>
@@ -2949,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>159</v>
       </c>
@@ -2960,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>160</v>
       </c>
@@ -2971,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>161</v>
       </c>
@@ -2982,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>162</v>
       </c>
@@ -2993,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>163</v>
       </c>
@@ -3004,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>164</v>
       </c>
@@ -3015,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>165</v>
       </c>
@@ -3026,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>166</v>
       </c>
@@ -3037,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -3048,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>168</v>
       </c>
@@ -3059,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -3070,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>168</v>
       </c>
@@ -3081,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>169</v>
       </c>
@@ -3092,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>170</v>
       </c>
@@ -3103,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>170</v>
       </c>
@@ -3114,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>171</v>
       </c>
@@ -3125,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>172</v>
       </c>
@@ -3136,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>172</v>
       </c>
@@ -3147,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>173</v>
       </c>
@@ -3158,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>174</v>
       </c>
@@ -3169,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>174</v>
       </c>
@@ -3180,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>175</v>
       </c>
@@ -3191,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>176</v>
       </c>
@@ -3202,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>176</v>
       </c>
@@ -3213,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>176</v>
       </c>
@@ -3224,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>176</v>
       </c>
@@ -3235,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>176</v>
       </c>
@@ -3246,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>176</v>
       </c>
@@ -3257,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>177</v>
       </c>
@@ -3268,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>176</v>
       </c>
@@ -3279,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>178</v>
       </c>
@@ -3290,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>179</v>
       </c>
@@ -3301,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>180</v>
       </c>
@@ -3312,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>176</v>
       </c>
@@ -3323,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>181</v>
       </c>
@@ -3334,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>182</v>
       </c>
@@ -3345,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>183</v>
       </c>
@@ -3356,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>184</v>
       </c>
@@ -3367,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>185</v>
       </c>
@@ -3378,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>186</v>
       </c>
@@ -3389,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>187</v>
       </c>
@@ -3400,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>188</v>
       </c>
@@ -3411,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>189</v>
       </c>
@@ -3422,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>190</v>
       </c>
@@ -3433,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>191</v>
       </c>
@@ -3444,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>192</v>
       </c>
@@ -3455,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>193</v>
       </c>
@@ -3466,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>194</v>
       </c>
@@ -3477,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>195</v>
       </c>
@@ -3488,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>196</v>
       </c>
@@ -3499,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>197</v>
       </c>
@@ -3510,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>198</v>
       </c>
@@ -3521,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>195</v>
       </c>
@@ -3532,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>199</v>
       </c>
@@ -3543,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>200</v>
       </c>
@@ -3554,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>201</v>
       </c>
@@ -3565,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>202</v>
       </c>
@@ -3576,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>167</v>
       </c>
@@ -3587,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>168</v>
       </c>
@@ -3598,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>168</v>
       </c>
@@ -3609,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>168</v>
       </c>
@@ -3620,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>169</v>
       </c>
@@ -3631,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>170</v>
       </c>
@@ -3642,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>170</v>
       </c>
@@ -3653,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>203</v>
       </c>
@@ -3664,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>204</v>
       </c>
@@ -3675,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>205</v>
       </c>
@@ -3686,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>206</v>
       </c>
@@ -3697,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>201</v>
       </c>
@@ -3708,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>202</v>
       </c>
@@ -3719,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>207</v>
       </c>
@@ -3730,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>208</v>
       </c>
@@ -3741,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -3752,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>210</v>
       </c>
@@ -3763,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>211</v>
       </c>
@@ -3774,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>212</v>
       </c>
@@ -3785,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>213</v>
       </c>
@@ -3796,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>214</v>
       </c>
@@ -3807,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>215</v>
       </c>
@@ -3818,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>216</v>
       </c>
@@ -3829,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>217</v>
       </c>
@@ -3840,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>218</v>
       </c>
@@ -3851,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>208</v>
       </c>
@@ -3862,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>208</v>
       </c>
@@ -3873,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>219</v>
       </c>
@@ -3884,315 +4186,1334 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>135</v>
       </c>
       <c r="B259" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>135</v>
       </c>
       <c r="B260" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>135</v>
       </c>
       <c r="B261" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>135</v>
       </c>
       <c r="B262" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>135</v>
       </c>
       <c r="B263" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>135</v>
       </c>
       <c r="B264" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>135</v>
       </c>
       <c r="B265" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>135</v>
       </c>
       <c r="B266" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>135</v>
       </c>
       <c r="B267" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>135</v>
       </c>
       <c r="B268" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>135</v>
       </c>
       <c r="B269" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>135</v>
       </c>
       <c r="B270" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>135</v>
       </c>
       <c r="B271" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>135</v>
       </c>
       <c r="B272" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>135</v>
       </c>
       <c r="B273" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>135</v>
       </c>
       <c r="B274" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>135</v>
       </c>
       <c r="B275" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>135</v>
       </c>
       <c r="B276" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>135</v>
       </c>
       <c r="B277" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>135</v>
       </c>
       <c r="B278" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>135</v>
       </c>
       <c r="B279" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>135</v>
       </c>
       <c r="B280" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>135</v>
       </c>
       <c r="B281" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>135</v>
       </c>
       <c r="B282" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>135</v>
       </c>
       <c r="B283" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>135</v>
       </c>
       <c r="B284" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>135</v>
       </c>
       <c r="B285" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>135</v>
       </c>
       <c r="B286" t="s">
+        <v>221</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C286">
+      <c r="B287" t="s">
+        <v>221</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B288" t="s">
+        <v>221</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B289" t="s">
+        <v>221</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B290" t="s">
+        <v>221</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B291" t="s">
+        <v>221</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B292" t="s">
+        <v>221</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B293" t="s">
+        <v>221</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B294" t="s">
+        <v>221</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B295" t="s">
+        <v>221</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B296" t="s">
+        <v>221</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B297" t="s">
+        <v>221</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B298" t="s">
+        <v>221</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B299" t="s">
+        <v>221</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B300" t="s">
+        <v>221</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B301" t="s">
+        <v>221</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B302" t="s">
+        <v>221</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B303" t="s">
+        <v>221</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B304" t="s">
+        <v>221</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B305" t="s">
+        <v>221</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B306" t="s">
+        <v>221</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B307" t="s">
+        <v>221</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B308" t="s">
+        <v>221</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B309" t="s">
+        <v>221</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B310" t="s">
+        <v>221</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B311" t="s">
+        <v>221</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B312" t="s">
+        <v>221</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B313" t="s">
+        <v>221</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B314" t="s">
+        <v>221</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B315" t="s">
+        <v>221</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B316" t="s">
+        <v>221</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B317" t="s">
+        <v>221</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B318" t="s">
+        <v>221</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B319" t="s">
+        <v>221</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B320" t="s">
+        <v>221</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B321" t="s">
+        <v>221</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B322" t="s">
+        <v>221</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B323" t="s">
+        <v>221</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B324" t="s">
+        <v>221</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B325" t="s">
+        <v>221</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B326" t="s">
+        <v>221</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B327" t="s">
+        <v>221</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B328" t="s">
+        <v>221</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B329" t="s">
+        <v>221</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B330" t="s">
+        <v>221</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B331" t="s">
+        <v>221</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B332" t="s">
+        <v>221</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B333" t="s">
+        <v>221</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B334" t="s">
+        <v>221</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B335" t="s">
+        <v>221</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B336" t="s">
+        <v>221</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B337" t="s">
+        <v>221</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B338" t="s">
+        <v>221</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B339" t="s">
+        <v>221</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B340" t="s">
+        <v>221</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B341" t="s">
+        <v>221</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B342" t="s">
+        <v>221</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B343" t="s">
+        <v>221</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B344" t="s">
+        <v>221</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B345" t="s">
+        <v>221</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B346" t="s">
+        <v>221</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B347" t="s">
+        <v>221</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B348" t="s">
+        <v>221</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B349" t="s">
+        <v>221</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B350" t="s">
+        <v>221</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B351" t="s">
+        <v>221</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B352" t="s">
+        <v>221</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B353" t="s">
+        <v>221</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B354" t="s">
+        <v>221</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B355" t="s">
+        <v>221</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B356" t="s">
+        <v>221</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B357" t="s">
+        <v>221</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B358" t="s">
+        <v>221</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B359" t="s">
+        <v>221</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B360" t="s">
+        <v>221</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B361" t="s">
+        <v>221</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B362" t="s">
+        <v>221</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B363" t="s">
+        <v>221</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B364" t="s">
+        <v>221</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B365" t="s">
+        <v>221</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B366" t="s">
+        <v>221</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B367" t="s">
+        <v>221</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B368" t="s">
+        <v>221</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B369" t="s">
+        <v>221</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B370" t="s">
+        <v>221</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B371" t="s">
+        <v>221</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B372" t="s">
+        <v>221</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B373" t="s">
+        <v>221</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B374" t="s">
+        <v>221</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B375" t="s">
+        <v>221</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B376" t="s">
+        <v>221</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377" t="s">
+        <v>221</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" t="s">
+        <v>221</v>
+      </c>
+      <c r="C378">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C286">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/thanksset.xlsx
+++ b/datasets/thanksset.xlsx
@@ -1342,8 +1342,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="F362" sqref="F362"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N287" sqref="N287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>239</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>244</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>239</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>287</v>
       </c>
